--- a/Excels/test.xlsx
+++ b/Excels/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FEDAD4-006A-8B42-A245-B41C3AFD12E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C45437-27B4-974C-981E-3F54C4754AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="FTRTickets" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="338">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -47,14 +48,1030 @@
     <t>FE</t>
   </si>
   <si>
-    <t>Secure@2021</t>
+    <t>CustomerInteration</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Hussein Maalim</t>
+  </si>
+  <si>
+    <t>Customer DOB</t>
+  </si>
+  <si>
+    <t>16-Nov-1989</t>
+  </si>
+  <si>
+    <t>20 May 2020</t>
+  </si>
+  <si>
+    <t>Activation Time</t>
+  </si>
+  <si>
+    <t>Sim Number</t>
+  </si>
+  <si>
+    <t>Sim Type</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>PUK1</t>
+  </si>
+  <si>
+    <t>PUK2</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>***15893</t>
+  </si>
+  <si>
+    <t>id number</t>
+  </si>
+  <si>
+    <t>id type</t>
+  </si>
+  <si>
+    <t>Activation date</t>
+  </si>
+  <si>
+    <t>8925403532007591753</t>
+  </si>
+  <si>
+    <t>01: 21 AM</t>
+  </si>
+  <si>
+    <t>Secure@2023</t>
+  </si>
+  <si>
+    <t>Service Enquiry</t>
+  </si>
+  <si>
+    <t>KYC Enquiry</t>
+  </si>
+  <si>
+    <t>SIM Registration information and status</t>
+  </si>
+  <si>
+    <t>ENQ001</t>
+  </si>
+  <si>
+    <t>SIM PIN Enquiry</t>
+  </si>
+  <si>
+    <t>ENQ002</t>
+  </si>
+  <si>
+    <t>Request -FTR</t>
+  </si>
+  <si>
+    <t>SIM PUK Request</t>
+  </si>
+  <si>
+    <t>SIM PUK Required</t>
+  </si>
+  <si>
+    <t>REQ002</t>
+  </si>
+  <si>
+    <t>Sim Upgrade Enquiry</t>
+  </si>
+  <si>
+    <t>SIM Upgrade - Size / 4G change</t>
+  </si>
+  <si>
+    <t>ENQ003</t>
+  </si>
+  <si>
+    <t>Sim Swap - CDRs available</t>
+  </si>
+  <si>
+    <t>REQ003</t>
+  </si>
+  <si>
+    <t>Bonus Not Clear Enquiry</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance - Bonus Not Clear</t>
+  </si>
+  <si>
+    <t>ENQ004</t>
+  </si>
+  <si>
+    <t>Voucher Overscratched Enquiry</t>
+  </si>
+  <si>
+    <t>Recharge - Overscratched card</t>
+  </si>
+  <si>
+    <t>REQ004</t>
+  </si>
+  <si>
+    <t>Voucher recharge</t>
+  </si>
+  <si>
+    <t>Voucher recharge-Damaged/Missing or stolen</t>
+  </si>
+  <si>
+    <t>REQ005</t>
+  </si>
+  <si>
+    <t>Me2U Query</t>
+  </si>
+  <si>
+    <t>Recharge - Me2U Mechanics</t>
+  </si>
+  <si>
+    <t>ENQ005</t>
+  </si>
+  <si>
+    <t>Tariff - Vuka 2 Enquiry</t>
+  </si>
+  <si>
+    <t>Tariff - VUKA 2 - Information</t>
+  </si>
+  <si>
+    <t>ENQ006</t>
+  </si>
+  <si>
+    <t>Tariff - Vuka Enquiry</t>
+  </si>
+  <si>
+    <t>Tariff - VUKA - Information</t>
+  </si>
+  <si>
+    <t>ENQ007</t>
+  </si>
+  <si>
+    <t>Tariff - Klub 254 Enquiry</t>
+  </si>
+  <si>
+    <t>Tariff - Klub 254  - Information</t>
+  </si>
+  <si>
+    <t>ENQ008</t>
+  </si>
+  <si>
+    <t>Other Tariff Enquiry</t>
+  </si>
+  <si>
+    <t>Airtel Tariff - Others - Information</t>
+  </si>
+  <si>
+    <t>ENQ009</t>
+  </si>
+  <si>
+    <t>Kopa cash Information Enquiry</t>
+  </si>
+  <si>
+    <t>Kopa cash - Information</t>
+  </si>
+  <si>
+    <t>ENQ010</t>
+  </si>
+  <si>
+    <t>Kopa cash Eligibility Enquiry</t>
+  </si>
+  <si>
+    <t>Kopa cash - Eligibility</t>
+  </si>
+  <si>
+    <t>REQ007</t>
+  </si>
+  <si>
+    <t>Mfanisi Information Enquiry</t>
+  </si>
+  <si>
+    <t>Mfanisi - Information</t>
+  </si>
+  <si>
+    <t>ENQ011</t>
+  </si>
+  <si>
+    <t>Mfanisi Eligibility Enquiry</t>
+  </si>
+  <si>
+    <t>Mfanisi - Eligibility</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
+    <t>Amazing Enquiry</t>
+  </si>
+  <si>
+    <t>Product -Amazing  - Information</t>
+  </si>
+  <si>
+    <t>ENQ012</t>
+  </si>
+  <si>
+    <t>Tubonge - Product understanding/How to use</t>
+  </si>
+  <si>
+    <t>ENQ013</t>
+  </si>
+  <si>
+    <t>Unliminet bundles - Enquiry</t>
+  </si>
+  <si>
+    <t>Product -Unliminet  - Information</t>
+  </si>
+  <si>
+    <t>ENQ014</t>
+  </si>
+  <si>
+    <t>Roaming bundles -  Enquiry</t>
+  </si>
+  <si>
+    <t>Product - Roaming bundles- Information</t>
+  </si>
+  <si>
+    <t>ENQ015</t>
+  </si>
+  <si>
+    <t>Roaming Information</t>
+  </si>
+  <si>
+    <t>ENQ016</t>
+  </si>
+  <si>
+    <t>International Calling Rates</t>
+  </si>
+  <si>
+    <t>International Calling Rates information</t>
+  </si>
+  <si>
+    <t>ENQ017</t>
+  </si>
+  <si>
+    <t>SMS bundles -  Enquiry</t>
+  </si>
+  <si>
+    <t>Product - SMS bundles- Information</t>
+  </si>
+  <si>
+    <t>ENQ018</t>
+  </si>
+  <si>
+    <t>Tosha bundles Enquiry</t>
+  </si>
+  <si>
+    <t>Product - Tosha Bundles  - Information</t>
+  </si>
+  <si>
+    <t>ENQ019</t>
+  </si>
+  <si>
+    <t>Club Bundles Enquiry</t>
+  </si>
+  <si>
+    <t>Product - Club Bundles- Information</t>
+  </si>
+  <si>
+    <t>ENQ020</t>
+  </si>
+  <si>
+    <t>Unliminet Modem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Unliminet Modem - Information</t>
+    </r>
+  </si>
+  <si>
+    <t>ENQ021</t>
+  </si>
+  <si>
+    <t>Data - Internet Settings</t>
+  </si>
+  <si>
+    <t>Data internet settings activation requests</t>
+  </si>
+  <si>
+    <t>REQ009</t>
+  </si>
+  <si>
+    <t>Data  - Blackberry</t>
+  </si>
+  <si>
+    <t>Data - blackberry</t>
+  </si>
+  <si>
+    <t>REQ010</t>
+  </si>
+  <si>
+    <t>Data  - service/ apps related</t>
+  </si>
+  <si>
+    <t>Data - How to setup internet, email, facebook, whatsapp</t>
+  </si>
+  <si>
+    <t>REQ011</t>
+  </si>
+  <si>
+    <t>Data  - Device related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data - How to set up/ configure Routers, MiFis, Modems, Handsets </t>
+  </si>
+  <si>
+    <t>REQ012</t>
+  </si>
+  <si>
+    <t>ACS Eligibility Enquiry</t>
+  </si>
+  <si>
+    <t>VAS - Airtel Credit Service (kopa credo)- Eligibility</t>
+  </si>
+  <si>
+    <t>ENQ023</t>
+  </si>
+  <si>
+    <t>CRBT Information Enquiry</t>
+  </si>
+  <si>
+    <t>VAS - Caller Ring Back Tone (CRBT) - Information</t>
+  </si>
+  <si>
+    <t>ENQ024</t>
+  </si>
+  <si>
+    <t>CRBT Activation Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAS - Caller Ring Back Tone (CRBT) - Activation </t>
+  </si>
+  <si>
+    <t>ENQ025</t>
+  </si>
+  <si>
+    <t>CRBT Song Change Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAS - Caller Ring Back Tone (CRBT) - Song Change </t>
+  </si>
+  <si>
+    <t>ENQ026</t>
+  </si>
+  <si>
+    <t>CRBT Deactivation Enquiry</t>
+  </si>
+  <si>
+    <t>VAS - Caller Ring Back Tone (CRBT) - Deactivation</t>
+  </si>
+  <si>
+    <t>ENQ027</t>
+  </si>
+  <si>
+    <t>Magic Voice</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VAS - Magic Voice - Information</t>
+    </r>
+  </si>
+  <si>
+    <t>ENQ028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAS - Magic Voice - Activation </t>
+  </si>
+  <si>
+    <t>ENQ029</t>
+  </si>
+  <si>
+    <t>Music on Demand Enquiry - Airtel Ngoma</t>
+  </si>
+  <si>
+    <t>VAS - Airtel Ngoma - Music on Demand - Information</t>
+  </si>
+  <si>
+    <t>ENQ030</t>
+  </si>
+  <si>
+    <t>Music on Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAS - Airtel Ngoma - Music on Demand - Activation </t>
+  </si>
+  <si>
+    <t>ENQ031</t>
+  </si>
+  <si>
+    <t>Others - Activation Enquiry</t>
+  </si>
+  <si>
+    <t>VAS - Others - Activation</t>
+  </si>
+  <si>
+    <t>ENQ032</t>
+  </si>
+  <si>
+    <t>Others - VAS Information Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAS - Others - Information </t>
+  </si>
+  <si>
+    <t>ENQ033</t>
+  </si>
+  <si>
+    <t>Airtel Kopa credo information</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance Depletion - Airtel Kopa credo information</t>
+  </si>
+  <si>
+    <t>ENQ038</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance Depletion - Airtel Kopa credo recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Airtel Kopa credo recovery</t>
+  </si>
+  <si>
+    <t>ENQ039</t>
+  </si>
+  <si>
+    <t>AM PIN Reset and Account Unblock - Customer</t>
+  </si>
+  <si>
+    <t>REQ020</t>
+  </si>
+  <si>
+    <t>Airtel Money Enquiry</t>
+  </si>
+  <si>
+    <t>Airtel Money - Information/ Query /Request</t>
+  </si>
+  <si>
+    <t>ENQ041</t>
+  </si>
+  <si>
+    <t>Airtel Money Registration Enquiry</t>
+  </si>
+  <si>
+    <t>Airtel Money - Registration - Enquiry</t>
+  </si>
+  <si>
+    <t>ENQ042</t>
+  </si>
+  <si>
+    <t>Airtel Money Enquiry - Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airtel Money - Agent Requirement </t>
+  </si>
+  <si>
+    <t>ENQ043</t>
+  </si>
+  <si>
+    <t>AM Paybills Enquiry</t>
+  </si>
+  <si>
+    <t>General - AM Merchant Enquiry</t>
+  </si>
+  <si>
+    <t>ENQ044</t>
+  </si>
+  <si>
+    <t>Airtel Money Bonus Enquiry</t>
+  </si>
+  <si>
+    <t>Airtel Money - Bonus Information</t>
+  </si>
+  <si>
+    <t>ENQ045</t>
+  </si>
+  <si>
+    <t>Postpaid Unbarring / PTP Enquiry</t>
+  </si>
+  <si>
+    <t>Postpaid - Billing - Unbarring / PTP</t>
+  </si>
+  <si>
+    <t>REQ023</t>
+  </si>
+  <si>
+    <t>Postpaid -Smart Postpaid</t>
+  </si>
+  <si>
+    <t>Postpaid -Smart Postpaid Tariff</t>
+  </si>
+  <si>
+    <t>ENQ046</t>
+  </si>
+  <si>
+    <t>Postpaid - Tariffs - Information</t>
+  </si>
+  <si>
+    <t>Postpaid  - Other Tariffs Information</t>
+  </si>
+  <si>
+    <t>ENQ047</t>
+  </si>
+  <si>
+    <t>Roaming Enquiry</t>
+  </si>
+  <si>
+    <t>Roaming</t>
+  </si>
+  <si>
+    <t>ENQ048</t>
+  </si>
+  <si>
+    <t>One Airtel Roaming Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneAirtel Roaming</t>
+  </si>
+  <si>
+    <t>ENQ049</t>
+  </si>
+  <si>
+    <t>Services Info Enquiry - Handset Related services</t>
+  </si>
+  <si>
+    <t>General - Handset Services Information</t>
+  </si>
+  <si>
+    <t>ENQ050</t>
+  </si>
+  <si>
+    <t>Existing Services Info Enquiry</t>
+  </si>
+  <si>
+    <t>General - Existing Services Information</t>
+  </si>
+  <si>
+    <t>ENQ051</t>
+  </si>
+  <si>
+    <t>New Services Info Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General - New Product update - New Services Information </t>
+  </si>
+  <si>
+    <t>ENQ052</t>
+  </si>
+  <si>
+    <t>Promotions Enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General - Promotions and Offers </t>
+  </si>
+  <si>
+    <t>ENQ053</t>
+  </si>
+  <si>
+    <t>Shop / AM Locations Enquiry</t>
+  </si>
+  <si>
+    <t>General - Shop / AM Locations</t>
+  </si>
+  <si>
+    <t>ENQ054</t>
+  </si>
+  <si>
+    <t>Number Portability Enquiry</t>
+  </si>
+  <si>
+    <t>General - Number Portability information</t>
+  </si>
+  <si>
+    <t>ENQ055</t>
+  </si>
+  <si>
+    <t>Prank / Frivilous Caller Enquiry</t>
+  </si>
+  <si>
+    <t>General - Prank / Frivilous Caller</t>
+  </si>
+  <si>
+    <t>ENQ056</t>
+  </si>
+  <si>
+    <t>Loyalty Program Info Enquiry</t>
+  </si>
+  <si>
+    <t>General - Loyalty Program (Airtel Zawadi) - Information</t>
+  </si>
+  <si>
+    <t>ENQ057</t>
+  </si>
+  <si>
+    <t>Loyalty Program Redemption (Airtel Zawadi)</t>
+  </si>
+  <si>
+    <t>General - Loyalty Program - Redemption (Airtel Zawadi)</t>
+  </si>
+  <si>
+    <t>ENQ058</t>
+  </si>
+  <si>
+    <t>Lost phone Request General - Line suspension, Barring</t>
+  </si>
+  <si>
+    <t>General - Lost Phone - Line suspension, Barring</t>
+  </si>
+  <si>
+    <t>REQ031</t>
+  </si>
+  <si>
+    <t>Complaint-FTR</t>
+  </si>
+  <si>
+    <t>Fraudlent swap</t>
+  </si>
+  <si>
+    <t>Swap - Fraudulent</t>
+  </si>
+  <si>
+    <t>COM005</t>
+  </si>
+  <si>
+    <t>Fraudlent Call</t>
+  </si>
+  <si>
+    <t>Fraudster calls</t>
+  </si>
+  <si>
+    <t>COM006</t>
+  </si>
+  <si>
+    <t>Hoax SMS</t>
+  </si>
+  <si>
+    <t>COM007</t>
+  </si>
+  <si>
+    <t>Avaya - Silent Calls Enquiry</t>
+  </si>
+  <si>
+    <t>Avaya Silent / Blank Calls (to Agent)</t>
+  </si>
+  <si>
+    <t>COM008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaya - Dropped/Short  Calls 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaya Dropped/ Short Calls </t>
+  </si>
+  <si>
+    <t>COM086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaya - Noisy Calls </t>
+  </si>
+  <si>
+    <t>Avaya Noisy calls</t>
+  </si>
+  <si>
+    <t>COM087</t>
+  </si>
+  <si>
+    <t>Trade reporting platforms downtime</t>
+  </si>
+  <si>
+    <t>General - Trade reporting platform downtime</t>
+  </si>
+  <si>
+    <t>REQ039</t>
+  </si>
+  <si>
+    <t>Customer reporting platforms downtime</t>
+  </si>
+  <si>
+    <t>General - Customers reporting platform downtime</t>
+  </si>
+  <si>
+    <t>REQ040</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance Depletion - CRBT</t>
+  </si>
+  <si>
+    <t>Balance Depletion - CRBT</t>
+  </si>
+  <si>
+    <t>ENQ034</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance Depletion - VAS</t>
+  </si>
+  <si>
+    <t>Balance Depletion - VAS</t>
+  </si>
+  <si>
+    <t>ENQ035</t>
+  </si>
+  <si>
+    <t>Prepaid - Balance Depletion - Data</t>
+  </si>
+  <si>
+    <t>Balance Depletion - Data</t>
+  </si>
+  <si>
+    <t>ENQ036</t>
+  </si>
+  <si>
+    <t>Pesapal Recharge -Pesapal Airtime  Not Delivered</t>
+  </si>
+  <si>
+    <t>Recharge -Pesapal Airtime  Not Delivered</t>
+  </si>
+  <si>
+    <t>COM071</t>
+  </si>
+  <si>
+    <t>Pesa pal-Mechanics</t>
+  </si>
+  <si>
+    <t>ENQ059</t>
+  </si>
+  <si>
+    <t>Smart Home</t>
+  </si>
+  <si>
+    <t>ENQ060</t>
+  </si>
+  <si>
+    <t>Call Me Back/ Please call me</t>
+  </si>
+  <si>
+    <t>ENQ061</t>
+  </si>
+  <si>
+    <t>Voice mail</t>
+  </si>
+  <si>
+    <t>ENQ062</t>
+  </si>
+  <si>
+    <t>Betting Enquiry</t>
+  </si>
+  <si>
+    <t>ENQ063</t>
+  </si>
+  <si>
+    <t>Call divert</t>
+  </si>
+  <si>
+    <t>ENQ064</t>
+  </si>
+  <si>
+    <t>Missed call alert-Activation/Deactivation</t>
+  </si>
+  <si>
+    <t>ENQ066</t>
+  </si>
+  <si>
+    <t>Directory enquiries</t>
+  </si>
+  <si>
+    <t>ENQ067</t>
+  </si>
+  <si>
+    <t>SMS center number</t>
+  </si>
+  <si>
+    <t>ENQ068</t>
+  </si>
+  <si>
+    <t>Call back request-Customer requesting to be called back</t>
+  </si>
+  <si>
+    <t>REQ050</t>
+  </si>
+  <si>
+    <t>Choose  your number information</t>
+  </si>
+  <si>
+    <t>ENQ069</t>
+  </si>
+  <si>
+    <t>Phone backup-mechanics</t>
+  </si>
+  <si>
+    <t>ENQ070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMS not updating </t>
+  </si>
+  <si>
+    <t>COM072</t>
+  </si>
+  <si>
+    <t>Shop Sales  Airtel Money Deposit</t>
+  </si>
+  <si>
+    <t>REQ043</t>
+  </si>
+  <si>
+    <t>Shop Sales  Airtel Money Withdrawal</t>
+  </si>
+  <si>
+    <t>REQ044</t>
+  </si>
+  <si>
+    <t>Shop Sales  Airtel Money Float sale</t>
+  </si>
+  <si>
+    <t>REQ045</t>
+  </si>
+  <si>
+    <t>Shop Sales - Airtime</t>
+  </si>
+  <si>
+    <t>REQ046</t>
+  </si>
+  <si>
+    <t>Shop Sales - Handset</t>
+  </si>
+  <si>
+    <t>REQ047</t>
+  </si>
+  <si>
+    <t>Shop Sales - Data device</t>
+  </si>
+  <si>
+    <t>REQ048</t>
+  </si>
+  <si>
+    <t>M-Akiba Information Enquiry</t>
+  </si>
+  <si>
+    <t>Airtel Money - Account Unblock</t>
+  </si>
+  <si>
+    <t>ENQ071</t>
+  </si>
+  <si>
+    <t>MY AIRTIME -  Mechanics</t>
+  </si>
+  <si>
+    <t>ENQ072</t>
+  </si>
+  <si>
+    <t>M-Akiba complaints</t>
+  </si>
+  <si>
+    <t>Airtel Money - PIN Reset - Customer</t>
+  </si>
+  <si>
+    <t>COM082</t>
+  </si>
+  <si>
+    <t>Charged on PAYG  - NO Data bundle and customer not aware</t>
+  </si>
+  <si>
+    <t>COM083</t>
+  </si>
+  <si>
+    <t>Inability to call - Lack of airtime</t>
+  </si>
+  <si>
+    <t>COM084</t>
+  </si>
+  <si>
+    <t>MY AIRTIME Recharge -Airtime  Not Delivered</t>
+  </si>
+  <si>
+    <t>COM085</t>
+  </si>
+  <si>
+    <t>KCPE Enquiries</t>
+  </si>
+  <si>
+    <t>ENQ073</t>
+  </si>
+  <si>
+    <t>KCSE Enquiries</t>
+  </si>
+  <si>
+    <t>ENQ074</t>
+  </si>
+  <si>
+    <t>MY DAWA enquiries</t>
+  </si>
+  <si>
+    <t>MY DAWA enquiries - mechanics</t>
+  </si>
+  <si>
+    <t>ENQ092</t>
+  </si>
+  <si>
+    <t>Tubonge - What are the benefits</t>
+  </si>
+  <si>
+    <t>ENQ093</t>
+  </si>
+  <si>
+    <t>Tubonge - How to check minutes</t>
+  </si>
+  <si>
+    <t>ENQ094</t>
+  </si>
+  <si>
+    <t>5% Cash back mechanics</t>
+  </si>
+  <si>
+    <t>ENQ095</t>
+  </si>
+  <si>
+    <t>Extra Airtime on recharge -2% mechanics</t>
+  </si>
+  <si>
+    <t>ENQ096</t>
+  </si>
+  <si>
+    <t>Purchase Airtel Airtime via Other Channels - Mechanics</t>
+  </si>
+  <si>
+    <t>Recharge Airtel Airtime via Partners Paybill - Mechanics</t>
+  </si>
+  <si>
+    <t>ENQ097</t>
+  </si>
+  <si>
+    <t>Night Bundle 3GB (Targetted) - Mechanics</t>
+  </si>
+  <si>
+    <t>ENQ098</t>
+  </si>
+  <si>
+    <t>Bundle failed autorenew - Lack of airtime/ Insufficient</t>
+  </si>
+  <si>
+    <t>Bundle failed autorenew - Lack of airtime</t>
+  </si>
+  <si>
+    <t>COM099</t>
+  </si>
+  <si>
+    <t>Airtel App Download</t>
+  </si>
+  <si>
+    <t>REQ053</t>
+  </si>
+  <si>
+    <t>HBB/Smart box - how to buy bundles on portal</t>
+  </si>
+  <si>
+    <t>HBB - how to buy bundles on portal</t>
+  </si>
+  <si>
+    <t>ENQ099</t>
+  </si>
+  <si>
+    <t>Transaction SMS request</t>
+  </si>
+  <si>
+    <t>REQ054</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Sub Sub Type</t>
+  </si>
+  <si>
+    <t>Issue Code ( Unique )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,16 +1087,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,14 +1128,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,15 +1481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E7A5F-3E6A-E248-889F-23B3A6B34B5F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,16 +1506,82 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2388006</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2">
+        <v>735873718</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>20772248</v>
+      </c>
+      <c r="L2">
+        <v>10441790</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -446,4 +1590,2014 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18D7CE-432C-7A43-A937-8C3A527B0618}">
+  <dimension ref="A1:E117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excels/test.xlsx
+++ b/Excels/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FEDAD4-006A-8B42-A245-B41C3AFD12E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
+    <workbookView xWindow="3900" yWindow="2265" windowWidth="28035" windowHeight="17445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="TicketId" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -44,16 +44,22 @@
     <t>UserType</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>Secure@2021</t>
+    <t>June@123$</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>ticketid</t>
+  </si>
+  <si>
+    <t>080720000457</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,9 +98,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -409,16 +416,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E7A5F-3E6A-E248-889F-23B3A6B34B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,21 +436,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2388006</v>
+        <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{35F0E809-829E-5B45-8441-194CB68A33B9}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>